--- a/dfs2_good.xlsx
+++ b/dfs2_good.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\AiSD\Grafy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Grafy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215" activeTab="1"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="24000" windowHeight="10212" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="12">
   <si>
     <t>Generowanie</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Sum of czas</t>
+  </si>
+  <si>
+    <t>dfs_macierz</t>
   </si>
 </sst>
 </file>
@@ -566,48 +569,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — akcent 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — akcent 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — akcent 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akcent 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akcent 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akcent 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akcent 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akcent 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akcent 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Dane wejściowe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Dane wyjściowe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Dobry" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Komórka połączona" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Komórka zaznaczona" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Nagłówek 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutralny" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Obliczenia" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Suma" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Tekst objaśnienia" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Tytuł" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Uwaga" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Zły" xfId="7" builtinId="27" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -625,7 +628,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -637,7 +640,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -928,7 +930,7 @@
                   <c:v>4.7068119049072203E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.104103565216064</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.7609548568725503E-2</c:v>
@@ -1225,7 +1227,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1295,7 +1296,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1307,7 +1308,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1467,7 +1467,7 @@
                   <c:v>4.7068119049072203E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.104103565216064</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>6.7609548568725503E-2</c:v>
@@ -1764,7 +1764,674 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dfs2_bezgenerowania!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_nastepniki</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$17:$Z$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0008811950683501E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9949417114257804E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0068836212158203E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05330944061279E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6015291213989199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2022008895873999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9684543609619099E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0038347244262598E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7068119049072203E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7609548568725503E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9098701477050698E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2119932174682603E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.107111454010009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17217850685119601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7964-4555-9EC1-EFD2C6A25349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dfs2_bezgenerowania!$K$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_sasiedztwa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$18:$Z$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.0037631988525304E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7025947570800701E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8537263870239202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8066358566284096E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.108105659484863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16015720367431599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21924471855163499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.27442336082458402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34836006164550698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.44999170303344699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52749490737914995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61712408065795898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72476983070373502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87861919403076105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96294760704040505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7964-4555-9EC1-EFD2C6A25349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>dfs2_bezgenerowania!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dfs_macierz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$15:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>dfs2_bezgenerowania!$L$19:$Z$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7550000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8069999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0123999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.92E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.5000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7964-4555-9EC1-EFD2C6A25349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="389298080"/>
+        <c:axId val="389298736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="389298080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389298736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="389298736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389298080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1911,6 +2578,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2428,6 +3135,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3000,6 +4223,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3359,7 +4612,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:Q9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3479,9 +4732,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3519,7 +4772,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3554,6 +4807,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3589,9 +4859,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3747,15 +5034,15 @@
       <selection activeCell="E14" sqref="E14:U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +5050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3816,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3869,7 +5156,7 @@
         <v>2572.4858133792841</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -3922,7 +5209,7 @@
         <v>0.79958581924438277</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3975,7 +5262,7 @@
         <v>5.3988716602325386</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +5315,7 @@
         <v>65.827731609344298</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -4090,13 +5377,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -4107,7 +5397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +5408,7 @@
         <v>4.9046754837036098E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4129,7 +5419,7 @@
         <v>4.0037631988525304E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4140,7 +5430,7 @@
         <v>1.0008811950683501E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4151,7 +5441,7 @@
         <v>0.16668176651000899</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4162,7 +5452,7 @@
         <v>0.20319890975952101</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4173,7 +5463,7 @@
         <v>1.7025947570800701E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4184,7 +5474,7 @@
         <v>3.9949417114257804E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4195,7 +5485,7 @@
         <v>1.35774898529052</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +5496,7 @@
         <v>0.47499418258666898</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +5507,7 @@
         <v>3.8537263870239202E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -4228,7 +5518,7 @@
         <v>7.0068836212158203E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +5529,7 @@
         <v>4.72328376770019</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4250,7 +5540,7 @@
         <v>0.82686924934387196</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -4306,7 +5596,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4365,7 +5655,7 @@
         <v>598.86125373840298</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4406,7 +5696,7 @@
         <v>4.7068119049072203E-2</v>
       </c>
       <c r="U17">
-        <v>0.104103565216064</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="V17">
         <v>6.7609548568725503E-2</v>
@@ -4424,7 +5714,7 @@
         <v>0.17217850685119601</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4483,7 +5773,7 @@
         <v>0.96294760704040505</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -4494,55 +5784,55 @@
         <v>0.108105659484863</v>
       </c>
       <c r="K19" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L19">
-        <v>4.9046754837036098E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="M19">
-        <v>0.20319890975952101</v>
+        <v>3.7550000000000001E-3</v>
       </c>
       <c r="N19">
-        <v>0.47499418258666898</v>
+        <v>6.8069999999999997E-3</v>
       </c>
       <c r="O19">
-        <v>0.82686924934387196</v>
+        <v>1.0123999999999999E-2</v>
       </c>
       <c r="P19">
-        <v>1.2844536304473799</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="Q19">
-        <v>1.90986728668212</v>
+        <v>2.1659999999999999E-2</v>
       </c>
       <c r="R19">
-        <v>2.5815618038177401</v>
+        <v>2.92E-2</v>
       </c>
       <c r="S19">
-        <v>3.4057438373565598</v>
+        <v>3.9E-2</v>
       </c>
       <c r="T19">
-        <v>4.2836434841155997</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="U19">
-        <v>5.1715631484985298</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="V19">
-        <v>6.6833291053771902</v>
+        <v>6.2E-2</v>
       </c>
       <c r="W19">
-        <v>7.71724200248718</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="X19">
-        <v>8.9920220375061</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="Y19">
-        <v>10.352175474166801</v>
+        <v>0.1</v>
       </c>
       <c r="Z19">
-        <v>11.892020702362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -4553,7 +5843,7 @@
         <v>1.6015291213989199E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4564,7 +5854,7 @@
         <v>22.278869152068999</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +5865,7 @@
         <v>1.90986728668212</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -4586,7 +5876,7 @@
         <v>0.16015720367431599</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -4597,7 +5887,7 @@
         <v>2.2022008895873999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -4608,7 +5898,7 @@
         <v>38.407731056213301</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -4619,7 +5909,7 @@
         <v>2.5815618038177401</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -4630,7 +5920,7 @@
         <v>0.21924471855163499</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -4641,7 +5931,7 @@
         <v>2.9684543609619099E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -4652,7 +5942,7 @@
         <v>62.7500190734863</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -4663,7 +5953,7 @@
         <v>3.4057438373565598</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -4674,7 +5964,7 @@
         <v>0.27442336082458402</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -4685,7 +5975,7 @@
         <v>4.0038347244262598E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -4696,7 +5986,7 @@
         <v>92.058683633804307</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +5997,7 @@
         <v>4.2836434841155997</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -4718,7 +6008,7 @@
         <v>0.34836006164550698</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -4729,7 +6019,7 @@
         <v>4.7068119049072203E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -4740,7 +6030,7 @@
         <v>131.160183668136</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +6041,7 @@
         <v>5.1715631484985298</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -4762,7 +6052,7 @@
         <v>0.44999170303344699</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4773,7 +6063,7 @@
         <v>0.104103565216064</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -4784,7 +6074,7 @@
         <v>180.39410376548699</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +6085,7 @@
         <v>6.6833291053771902</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -4806,7 +6096,7 @@
         <v>0.52749490737914995</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4817,7 +6107,7 @@
         <v>6.7609548568725503E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -4828,7 +6118,7 @@
         <v>240.109721899032</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4839,7 +6129,7 @@
         <v>7.71724200248718</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4850,7 +6140,7 @@
         <v>0.61712408065795898</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4861,7 +6151,7 @@
         <v>7.9098701477050698E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -4872,7 +6162,7 @@
         <v>309.26382613182</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +6173,7 @@
         <v>8.9920220375061</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4894,7 +6184,7 @@
         <v>0.72476983070373502</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4905,7 +6195,7 @@
         <v>9.2119932174682603E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -4916,7 +6206,7 @@
         <v>392.35969209670998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4927,7 +6217,7 @@
         <v>10.352175474166801</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4938,7 +6228,7 @@
         <v>0.87861919403076105</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -4949,7 +6239,7 @@
         <v>0.107111454010009</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -4960,7 +6250,7 @@
         <v>487.21572613716103</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4971,7 +6261,7 @@
         <v>11.892020702362</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4982,7 +6272,7 @@
         <v>0.96294760704040505</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -4993,7 +6283,7 @@
         <v>0.17217850685119601</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
